--- a/data/small/departments.xlsx
+++ b/data/small/departments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layo\Desktop\ALX\schub\data2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layo\Desktop\schub\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55431EC7-5E90-4C99-8183-FEEAF72C914F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2D4A21-8A36-4EE4-A4CA-E987B568784B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26220" yWindow="3150" windowWidth="21600" windowHeight="11385" xr2:uid="{A7AE9260-E32B-4998-9C27-9E7764581CBA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{A7AE9260-E32B-4998-9C27-9E7764581CBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -36,26 +36,89 @@
     <t>created_at</t>
   </si>
   <si>
-    <t>Aerospace Engineering</t>
-  </si>
-  <si>
     <t>2017-03-25 02:17:06</t>
   </si>
   <si>
-    <t>Aerothermal Engineering</t>
-  </si>
-  <si>
-    <t>Agricultural Engineering</t>
+    <t>Biology Department</t>
+  </si>
+  <si>
+    <t>Business School</t>
+  </si>
+  <si>
+    <t>Chemistry Department</t>
+  </si>
+  <si>
+    <t>Nursing School</t>
+  </si>
+  <si>
+    <t>Visual Arts</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Social Sciences</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Environmental Science</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,9 +144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,20 +464,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB352E7-F4B5-47BF-B0F8-6C637C19FFCF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,19 +489,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("53af4926-52ee-41d0-9acc-ae7230", 300000+ROW()-1)</f>
         <v>53af4926-52ee-41d0-9acc-ae7230300001</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("53af4926-52ee-41d0-9acc-ae7230", 300000+ROW()-1)</f>
         <v>53af4926-52ee-41d0-9acc-ae7230300002</v>
@@ -443,22 +511,247 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f t="shared" ref="A4" si="0">CONCATENATE("53af4926-52ee-41d0-9acc-ae7230", 300000+ROW()-1)</f>
+        <f t="shared" ref="A4:A21" si="0">CONCATENATE("53af4926-52ee-41d0-9acc-ae7230", 300000+ROW()-1)</f>
         <v>53af4926-52ee-41d0-9acc-ae7230300003</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>53af4926-52ee-41d0-9acc-ae7230300020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>